--- a/output.xlsx
+++ b/output.xlsx
@@ -8,31 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smb/Desktop/IPCV-CW-I-Shape-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B786E-EF45-FC45-AC25-E9C97BF3C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DB933-E648-954D-8378-DE7E74D0B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="1840" windowWidth="24060" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="6280" windowWidth="24060" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$AE$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$8:$AE$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$9:$AE$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$9:$AE$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$6:$AE$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$12:$AE$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$5:$AE$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$11:$AE$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$AE$3</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$12:$AE$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3:$AE$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$11:$AE$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$AE$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$5:$AE$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$9:$AE$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$6:$AE$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$8:$AE$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Red Segment</t>
   </si>
@@ -720,12 +718,414 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>output!$C$22:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No Filtering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shape Filtering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>All Filtering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$D$22:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71597500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67696250000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71029374999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FDA-4C45-B183-B61767D0F0DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>output!$C$22:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No Filtering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shape Filtering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>All Filtering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output!$E$22:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68835625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72168749999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FDA-4C45-B183-B61767D0F0DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="615064767"/>
+        <c:axId val="599496591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="615064767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599496591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599496591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="615064767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -795,7 +1195,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -865,7 +1265,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -903,7 +1303,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{87771791-4BF2-D54A-A7FD-13C6F4496F6B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -941,7 +1341,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -979,7 +1379,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2982244E-7390-4041-9760-6B2AAE2020FD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1017,7 +1417,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1055,7 +1455,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{844683E0-ED1F-D34C-996E-317820D06E13}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1093,7 +1493,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1131,7 +1531,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8D83CD06-AEDE-C74A-8965-BA0F70452687}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1169,7 +1569,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1207,7 +1607,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5B877D7D-CD78-DC4E-95C8-3F17F6632B87}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1245,7 +1645,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1283,7 +1683,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AEADFD96-AE13-424B-A25C-D65E3C62AEDE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1636,8 +2036,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1648,7 +2088,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1671,7 +2111,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1694,7 +2134,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1702,11 +2142,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1731,46 +2171,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1785,8 +2215,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1794,12 +2226,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1809,13 +2238,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1834,16 +2263,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1914,6 +2345,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1945,8 +2382,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2001,7 +2438,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -2029,18 +2466,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -2050,9 +2476,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2068,7 +2497,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2084,7 +2513,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2098,7 +2527,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2131,7 +2560,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -2140,6 +2569,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5700,7 +6135,556 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448DA39B-CD52-5330-4172-44EF235BBA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6626,10 +7610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7838,7 +8822,7 @@
         <v>1.1875</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L3:L18)</f>
         <v>0.67696250000000002</v>
       </c>
       <c r="M19">
@@ -7883,6 +8867,14 @@
       <c r="X19">
         <f t="shared" si="0"/>
         <v>-0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -7890,22 +8882,38 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="1">AVERAGE(D6:D21)</f>
-        <v>1.3660714285714286</v>
+        <v>0.71597500000000003</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="2">AVERAGE(E6:E21)</f>
-        <v>0.6551125000000001</v>
+        <v>0.55510000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>28</v>
       </c>
+      <c r="D23">
+        <v>0.67696250000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.68835625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>0.71029374999999995</v>
+      </c>
+      <c r="E24">
+        <v>0.72168749999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smb/Desktop/IPCV-CW-I-Shape-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DB933-E648-954D-8378-DE7E74D0B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486A267-2770-DE4E-B2B0-E5CAF07CAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="6280" windowWidth="24060" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="2640" windowWidth="14500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$12:$AE$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3:$AE$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$11:$AE$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$AE$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$5:$AE$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$9:$AE$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$6:$AE$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$8:$AE$8</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$AE$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$AE$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$5:$AE$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$9:$AE$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6:$AE$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$8:$AE$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$11:$AE$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$12:$AE$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1125,7 +1125,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1195,7 +1195,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.10</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1265,7 +1265,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1303,7 +1303,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{87771791-4BF2-D54A-A7FD-13C6F4496F6B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1341,7 +1341,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1379,7 +1379,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2982244E-7390-4041-9760-6B2AAE2020FD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1417,7 +1417,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1455,7 +1455,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{844683E0-ED1F-D34C-996E-317820D06E13}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1493,7 +1493,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1531,7 +1531,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8D83CD06-AEDE-C74A-8965-BA0F70452687}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1569,7 +1569,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1607,7 +1607,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5B877D7D-CD78-DC4E-95C8-3F17F6632B87}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>TRUE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1645,7 +1645,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1683,7 +1683,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AEADFD96-AE13-424B-A25C-D65E3C62AEDE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>FALSE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7612,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7865,13 +7865,13 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q5" t="s">
         <v>6</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7933,13 +7933,13 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="Q6" t="s">
         <v>7</v>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -8039,19 +8039,19 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>0.18179999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>0.30769999999999997</v>
+        <v>0.1429</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M8">
-        <v>0.16669999999999999</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q8" t="s">
         <v>9</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8119,7 +8119,7 @@
         <v>0.75</v>
       </c>
       <c r="F9">
-        <v>0.85709999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="s">
         <v>10</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q10" t="s">
         <v>11</v>
@@ -8382,7 +8382,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -8391,7 +8391,7 @@
         <v>0.66669999999999996</v>
       </c>
       <c r="F13">
-        <v>0.57140000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q13" t="s">
         <v>14</v>
@@ -8450,7 +8450,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -8459,7 +8459,7 @@
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q14" t="s">
         <v>15</v>
@@ -8515,43 +8515,43 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0.85709999999999997</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="F15">
-        <v>0.92310000000000003</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.85709999999999997</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="M15">
-        <v>0.92310000000000003</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q15" t="s">
         <v>16</v>
@@ -8572,7 +8572,7 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q16" t="s">
         <v>17</v>
@@ -8672,22 +8672,22 @@
         <v>1</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.66669999999999996</v>
-      </c>
       <c r="M17">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q17" t="s">
         <v>18</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -8722,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.66669999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -8740,16 +8740,16 @@
         <v>2</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.8</v>
-      </c>
       <c r="M18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -8788,54 +8788,54 @@
       </c>
       <c r="B19">
         <f>AVERAGE(B3:B18)</f>
-        <v>1.8125</v>
+        <v>1.625</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:X19" si="0">AVERAGE(C3:C18)</f>
-        <v>1.375</v>
+        <v>1.9375</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.71597500000000003</v>
+        <v>0.69300625000000005</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.55510000000000004</v>
+        <v>0.51649375000000008</v>
       </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1.1875</v>
+        <v>1.25</v>
       </c>
       <c r="L19">
         <f>AVERAGE(L3:L18)</f>
-        <v>0.67696250000000002</v>
+        <v>0.69300625000000005</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.68835625</v>
+        <v>0.74371874999999998</v>
       </c>
       <c r="N19">
         <f>AVERAGE(N3:N18)</f>
-        <v>-6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>-1.125</v>
+        <v>-1.9375</v>
       </c>
       <c r="Q19" t="s">
         <v>31</v>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="X19">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smb/Desktop/IPCV-CW-I-Shape-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486A267-2770-DE4E-B2B0-E5CAF07CAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A9776A-AE7C-7A40-BED2-21D0A64AD9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="2640" windowWidth="14500" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
   <si>
     <t>Red Segment</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>All Filtering + Segmentation</t>
   </si>
 </sst>
 </file>
@@ -842,13 +845,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.71597500000000003</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67696250000000002</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71029374999999995</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,13 +910,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.55510000000000004</c:v>
+                  <c:v>0.51649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68835625</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72168749999999993</c:v>
+                  <c:v>0.74299999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7610,15 +7613,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O19"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -7628,8 +7631,11 @@
       <c r="Q1" t="s">
         <v>27</v>
       </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7690,8 +7696,38 @@
       <c r="V2" t="s">
         <v>25</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7714,23 +7750,23 @@
         <v>4</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:N18">I3:I18-B3:B18</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3:O18">J3:J18-C3:C18</f>
@@ -7754,15 +7790,42 @@
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" cm="1">
-        <f t="array" ref="W3:X18">R3:S18-I3:J18</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="W3">
+        <f>I3-R3</f>
+        <v>-2</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" ref="X3:X18">J3:J18-S3:S18</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <f>R3-AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" cm="1">
+        <f t="array" ref="AG3:AG18">S3:S18-AB3:AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7785,22 +7848,22 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -7823,14 +7886,40 @@
       <c r="V4">
         <v>1</v>
       </c>
-      <c r="W4">
-        <v>0</v>
+      <c r="W4" cm="1">
+        <f t="array" ref="W4:W19">I3:I18-R3:R18</f>
+        <v>-2</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" cm="1">
+        <f t="array" ref="AF4:AF19">R3:R18-AA3:AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7889,16 +7978,40 @@
         <v>1</v>
       </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
         <v>0.66669999999999996</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7948,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7957,16 +8070,40 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8033,8 +8170,32 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Z7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0.5</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8087,13 +8248,13 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="V8">
-        <v>0.16669999999999999</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -8101,8 +8262,32 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Z8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>0.6</v>
+      </c>
+      <c r="AE8">
+        <v>0.75</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8169,8 +8354,32 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Z9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0.75</v>
+      </c>
+      <c r="AE9">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AF9">
+        <v>-5</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -8237,8 +8446,32 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8305,8 +8538,32 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>0.5</v>
+      </c>
+      <c r="AE11">
+        <v>0.6</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8373,8 +8630,32 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Z12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -8441,8 +8722,32 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Z13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE13">
+        <v>0.8</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -8465,22 +8770,22 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O14">
         <v>-2</v>
@@ -8509,8 +8814,32 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Z14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -8533,22 +8862,22 @@
         <v>16</v>
       </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
-        <v>0.57140000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="M15">
-        <v>0.72719999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O15">
         <v>-2</v>
@@ -8557,28 +8886,52 @@
         <v>16</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>0.85709999999999997</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="V15">
-        <v>0.92310000000000003</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
         <v>2</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="AE15">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AF15">
+        <v>-1</v>
+      </c>
+      <c r="AG15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -8640,13 +8993,37 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Z16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>-1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -8713,8 +9090,32 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -8781,8 +9182,32 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -8811,7 +9236,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.625</v>
+        <v>1.3125</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -8819,19 +9244,19 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.5625</v>
       </c>
       <c r="L19">
         <f>AVERAGE(L3:L18)</f>
-        <v>0.69300625000000005</v>
+        <v>0.52785624999999992</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.74371874999999998</v>
+        <v>0.56909999999999994</v>
       </c>
       <c r="N19">
         <f>AVERAGE(N3:N18)</f>
-        <v>0</v>
+        <v>-0.3125</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -8841,35 +9266,64 @@
         <v>31</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
+        <f t="shared" ref="R19:X19" si="1">AVERAGE(R3:R18)</f>
+        <v>1.625</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
-        <v>1.1875</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="U19">
-        <f t="shared" si="0"/>
-        <v>0.71029374999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.69300625000000005</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
-        <v>0.72168749999999993</v>
+        <f t="shared" ref="V19:X19" si="2">AVERAGE(V3:V18)</f>
+        <v>0.74371874999999998</v>
       </c>
       <c r="W19">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f t="shared" ref="X19" si="3">AVERAGE(X3:X18)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19:AG19" si="4">AVERAGE(AA3:AA18)</f>
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="4"/>
+        <v>0.70193749999999999</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="4"/>
+        <v>0.64032500000000003</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" ref="AG19" si="5">AVERAGE(AG3:AG18)</f>
+        <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -8877,37 +9331,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22">
-        <v>0.71597500000000003</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E22">
-        <v>0.55510000000000004</v>
+        <v>0.51649999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23">
-        <v>0.67696250000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E23">
-        <v>0.68835625</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24">
-        <v>0.71029374999999995</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="E24">
-        <v>0.72168749999999993</v>
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
